--- a/excel/Student_Tasks_Template.xlsx
+++ b/excel/Student_Tasks_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d04b32342dcc5ba5/Automated_Tasks_Project/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A54F67-52D0-4449-B8A8-9C8F84B5C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B2A54F67-52D0-4449-B8A8-9C8F84B5C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFEC6B61-045A-45C1-9F62-C5188980E85A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{59565953-F75C-4C6E-9D58-9FA2DAEE3BCC}"/>
+    <workbookView xWindow="4596" yWindow="3432" windowWidth="17280" windowHeight="10008" xr2:uid="{59565953-F75C-4C6E-9D58-9FA2DAEE3BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D1EA783-9602-4862-93C7-680EDF167C4E}" name="TaskTable" displayName="TaskTable" ref="A1:K2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D1EA783-9602-4862-93C7-680EDF167C4E}" name="Tasks" displayName="Tasks" ref="A1:K2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:K2" xr:uid="{1D1EA783-9602-4862-93C7-680EDF167C4E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E8A0A05D-0E53-451B-855A-6AD04FD23F23}" name="TaskId"/>
